--- a/individual_case_outputs/avey/159.xlsx
+++ b/individual_case_outputs/avey/159.xlsx
@@ -597,7 +597,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>eye infection</t>
+          <t>viral conjunctivitis</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>blepharitis</t>
+          <t>stye</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -718,7 +718,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>dry eye syndrome</t>
+          <t>nonspecific eye pain</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -950,7 +950,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>allergic contact dermatitis</t>
+          <t>allergic conjunctivitis</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
